--- a/value-analysis.xlsx
+++ b/value-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jconnolly/Desktop/Personal/auction-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CFD648-80E2-BC46-B5F3-9D31F44864AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040128B2-F8F5-264F-812A-19C93B7C4624}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{E48B1157-A52C-BF44-9611-51CC67707CFA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="408">
   <si>
     <t>Mookie Betts</t>
   </si>
@@ -1255,14 +1255,17 @@
     <t>Christian Walker</t>
   </si>
   <si>
-    <t>Diff</t>
+    <t>Raw Diff</t>
+  </si>
+  <si>
+    <t>Perc Diff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1284,6 +1287,21 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1302,17 +1320,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1624,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59813482-B287-3048-AFB1-C010CDD61EE6}">
-  <dimension ref="A1:D260"/>
+  <dimension ref="A1:E260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1635,7 +1657,7 @@
     <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>228</v>
       </c>
@@ -1648,528 +1670,642 @@
       <c r="D1" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>97</v>
+      <c r="E1" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="B2" s="2">
-        <v>10.348258706467661</v>
+        <v>0.86235489220563843</v>
       </c>
       <c r="C2" s="2">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>13.651741293532339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>28</v>
+        <v>6.1376451077943619</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8.1173076923076923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="B3" s="2">
-        <v>20.696517412935322</v>
+        <v>0.86235489220563843</v>
       </c>
       <c r="C3" s="2">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>13.303482587064678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>104</v>
+        <v>4.1376451077943619</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5.7980769230769234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="B4" s="2">
-        <v>9.4859038142620236</v>
+        <v>2.5870646766169152</v>
       </c>
       <c r="C4" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
-        <v>12.514096185737976</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11.412935323383085</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5.4115384615384619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="B5" s="2">
-        <v>2.5870646766169152</v>
+        <v>0.86235489220563843</v>
       </c>
       <c r="C5" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>11.412935323383085</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.1376451077943615</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4.6384615384615389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="B6" s="2">
-        <v>6.8988391376451075</v>
+        <v>0.86235489220563843</v>
       </c>
       <c r="C6" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>8.1011608623548916</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.1376451077943615</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4.6384615384615389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.7247097844112769</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.2752902155887229</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.4788461538461539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.86235489220563843</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.1376451077943615</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.4788461538461539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="2">
         <v>3.4494195688225537</v>
-      </c>
-      <c r="C7" s="2">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2">
-        <v>7.5505804311774458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5.1741293532338304</v>
-      </c>
-      <c r="C8" s="2">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6.8258706467661696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="2">
-        <v>4.3117744610281923</v>
       </c>
       <c r="C9" s="2">
         <v>11</v>
       </c>
       <c r="D9" s="2">
+        <v>7.5505804311774458</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3.188942307692308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.4494195688225537</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.5505804311774458</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.8990384615384617</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.7247097844112769</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.2752902155887229</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.8990384615384617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4.3117744610281923</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
         <v>6.6882255389718077</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2">
-        <v>16.384742951907132</v>
-      </c>
-      <c r="C10" s="2">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6.6152570480928681</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="2">
-        <v>16.384742951907132</v>
-      </c>
-      <c r="C11" s="2">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2">
-        <v>6.6152570480928681</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="E12" s="4">
+        <v>2.5511538461538463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10.348258706467661</v>
+      </c>
+      <c r="C13" s="2">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>13.651741293532339</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.3192307692307694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5.1741293532338304</v>
+      </c>
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6.8258706467661696</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.3192307692307694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="2">
         <v>3.4494195688225537</v>
       </c>
-      <c r="C12" s="2">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2">
-        <v>6.5505804311774458</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="2">
-        <v>8.6235489220563846</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="C15" s="2">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4.5505804311774458</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.3192307692307694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.7247097844112769</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.2752902155887229</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2.3192307692307694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.86235489220563843</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.1376451077943615</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.3192307692307694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.86235489220563843</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.1376451077943615</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.3192307692307694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.86235489220563843</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.1376451077943615</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.3192307692307694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.86235489220563843</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.1376451077943615</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2.3192307692307694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9.4859038142620236</v>
+      </c>
+      <c r="C21" s="2">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2">
+        <v>12.514096185737976</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2.319230769230769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="2">
+        <v>6.8988391376451075</v>
+      </c>
+      <c r="C22" s="2">
         <v>15</v>
       </c>
-      <c r="D13" s="2">
-        <v>6.3764510779436154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="2">
-        <v>13.797678275290215</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6.202321724709785</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.86235489220563843</v>
-      </c>
-      <c r="C15" s="2">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2">
-        <v>6.1376451077943619</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2">
-        <v>18.971807628524047</v>
-      </c>
-      <c r="C16" s="2">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2">
-        <v>6.0281923714759529</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="2">
-        <v>12.072968490878939</v>
-      </c>
-      <c r="C17" s="2">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2">
-        <v>5.9270315091210612</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="2">
-        <v>8.6235489220563846</v>
-      </c>
-      <c r="C18" s="2">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2">
-        <v>5.3764510779436154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="2">
-        <v>14.660033167495854</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5.3399668325041461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="2">
-        <v>7.7611940298507456</v>
-      </c>
-      <c r="C20" s="2">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2">
-        <v>5.2388059701492544</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="2">
-        <v>12.935323383084576</v>
-      </c>
-      <c r="C21" s="2">
-        <v>18</v>
-      </c>
-      <c r="D21" s="2">
-        <v>5.064676616915424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="2">
-        <v>6.0364842454394694</v>
-      </c>
-      <c r="C22" s="2">
-        <v>11</v>
-      </c>
       <c r="D22" s="2">
-        <v>4.9635157545605306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>130</v>
+        <v>8.1011608623548916</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2.1742788461538463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="B23" s="2">
-        <v>6.0364842454394694</v>
+        <v>4.3117744610281923</v>
       </c>
       <c r="C23" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>4.9635157545605306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4.6882255389718077</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2.0873076923076925</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="B24" s="2">
-        <v>12.072968490878939</v>
+        <v>2.5870646766169152</v>
       </c>
       <c r="C24" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2">
-        <v>4.9270315091210612</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.4129353233830848</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1.9326923076923079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2">
-        <v>24.145936981757878</v>
+        <v>2.5870646766169152</v>
       </c>
       <c r="C25" s="2">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2">
-        <v>4.8540630182421225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.4129353233830848</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1.9326923076923079</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="B26" s="2">
-        <v>11.2106135986733</v>
+        <v>2.5870646766169152</v>
       </c>
       <c r="C26" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2">
-        <v>4.7893864013267002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>177</v>
+        <v>2.4129353233830848</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1.9326923076923079</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="B27" s="2">
         <v>4.3117744610281923</v>
       </c>
       <c r="C27" s="2">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3.6882255389718077</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1.8553846153846154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="2">
+        <v>6.0364842454394694</v>
+      </c>
+      <c r="C28" s="2">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4.9635157545605306</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1.8222527472527472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="2">
+        <v>6.0364842454394694</v>
+      </c>
+      <c r="C29" s="2">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4.9635157545605306</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1.8222527472527472</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5.1741293532338304</v>
+      </c>
+      <c r="C30" s="2">
         <v>9</v>
       </c>
-      <c r="D27" s="2">
-        <v>4.6882255389718077</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="2">
-        <v>10.348258706467661</v>
-      </c>
-      <c r="C28" s="2">
-        <v>15</v>
-      </c>
-      <c r="D28" s="2">
-        <v>4.6517412935323392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" s="2">
-        <v>3.4494195688225537</v>
-      </c>
-      <c r="C29" s="2">
-        <v>8</v>
-      </c>
-      <c r="D29" s="2">
-        <v>4.5505804311774458</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="2">
-        <v>28.457711442786067</v>
-      </c>
-      <c r="C30" s="2">
-        <v>33</v>
-      </c>
       <c r="D30" s="2">
-        <v>4.5422885572139329</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>98</v>
+        <v>3.8258706467661696</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1.7394230769230772</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="B31" s="2">
         <v>8.6235489220563846</v>
       </c>
       <c r="C31" s="2">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2">
+        <v>6.3764510779436154</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1.739423076923077</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3.4494195688225537</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2.5505804311774463</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1.739423076923077</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.7247097844112769</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.2752902155887231</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1.739423076923077</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="2">
+        <v>7.7611940298507456</v>
+      </c>
+      <c r="C34" s="2">
         <v>13</v>
       </c>
-      <c r="D31" s="2">
-        <v>4.3764510779436154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="2">
+      <c r="D34" s="2">
+        <v>5.2388059701492544</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1.675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="2">
+        <v>20.696517412935322</v>
+      </c>
+      <c r="C35" s="2">
+        <v>34</v>
+      </c>
+      <c r="D35" s="2">
+        <v>13.303482587064678</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1.6427884615384616</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="2">
         <v>8.6235489220563846</v>
       </c>
-      <c r="C32" s="2">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2">
-        <v>4.3764510779436154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="2">
-        <v>14.660033167495854</v>
-      </c>
-      <c r="C33" s="2">
-        <v>19</v>
-      </c>
-      <c r="D33" s="2">
-        <v>4.3399668325041461</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>226</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1.7247097844112769</v>
-      </c>
-      <c r="C34" s="2">
-        <v>6</v>
-      </c>
-      <c r="D34" s="2">
-        <v>4.2752902155887229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="2">
-        <v>13.797678275290215</v>
-      </c>
-      <c r="C35" s="2">
-        <v>18</v>
-      </c>
-      <c r="D35" s="2">
-        <v>4.202321724709785</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="2">
-        <v>13.797678275290215</v>
-      </c>
       <c r="C36" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2">
-        <v>4.202321724709785</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5.3764510779436154</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1.6234615384615385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="B37" s="2">
-        <v>13.797678275290215</v>
+        <v>4.3117744610281923</v>
       </c>
       <c r="C37" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D37" s="2">
-        <v>4.202321724709785</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.6882255389718077</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1.6234615384615385</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>140</v>
       </c>
       <c r="B38" s="2">
-        <v>0.86235489220563843</v>
+        <v>6.8988391376451075</v>
       </c>
       <c r="C38" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D38" s="2">
-        <v>4.1376451077943619</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>140</v>
+        <v>4.1011608623548925</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1.594471153846154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="B39" s="2">
         <v>6.8988391376451075</v>
@@ -2180,178 +2316,217 @@
       <c r="D39" s="2">
         <v>4.1011608623548925</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="4">
+        <v>1.594471153846154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="B40" s="2">
-        <v>6.8988391376451075</v>
+        <v>5.1741293532338304</v>
       </c>
       <c r="C40" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2">
-        <v>4.1011608623548925</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.8258706467661696</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1.5461538461538462</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="B41" s="2">
+        <v>2.5870646766169152</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.4129353233830848</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1.5461538461538462</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2.5870646766169152</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.4129353233830848</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1.5461538461538462</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="2">
+        <v>8.6235489220563846</v>
+      </c>
+      <c r="C43" s="2">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4.3764510779436154</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1.5075000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="2">
+        <v>8.6235489220563846</v>
+      </c>
+      <c r="C44" s="2">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4.3764510779436154</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1.5075000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="2">
         <v>12.072968490878939</v>
       </c>
-      <c r="C41" s="2">
-        <v>16</v>
-      </c>
-      <c r="D41" s="2">
-        <v>3.9270315091210612</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>158</v>
-      </c>
-      <c r="B42" s="2">
-        <v>5.1741293532338304</v>
-      </c>
-      <c r="C42" s="2">
+      <c r="C45" s="2">
+        <v>18</v>
+      </c>
+      <c r="D45" s="2">
+        <v>5.9270315091210612</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1.490934065934066</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="2">
+        <v>6.0364842454394694</v>
+      </c>
+      <c r="C46" s="2">
         <v>9</v>
       </c>
-      <c r="D42" s="2">
-        <v>3.8258706467661696</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>184</v>
-      </c>
-      <c r="B43" s="2">
-        <v>4.3117744610281923</v>
-      </c>
-      <c r="C43" s="2">
-        <v>8</v>
-      </c>
-      <c r="D43" s="2">
-        <v>3.6882255389718077</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="2">
-        <v>22.4212271973466</v>
-      </c>
-      <c r="C44" s="2">
-        <v>26</v>
-      </c>
-      <c r="D44" s="2">
-        <v>3.5787728026534005</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" s="2">
-        <v>9.4859038142620236</v>
-      </c>
-      <c r="C45" s="2">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2">
-        <v>3.5140961857379764</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" s="2">
-        <v>8.6235489220563846</v>
-      </c>
-      <c r="C46" s="2">
-        <v>12</v>
-      </c>
       <c r="D46" s="2">
-        <v>3.3764510779436154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>3</v>
+        <v>2.9635157545605306</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1.490934065934066</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B47" s="2">
-        <v>39.668325041459369</v>
+        <v>13.797678275290215</v>
       </c>
       <c r="C47" s="2">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D47" s="2">
-        <v>3.3316749585406313</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>24</v>
+        <v>6.202321724709785</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1.4495192307692308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="B48" s="2">
-        <v>20.696517412935322</v>
+        <v>10.348258706467661</v>
       </c>
       <c r="C48" s="2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2">
-        <v>3.3034825870646785</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4.6517412935323392</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1.4495192307692308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="B49" s="2">
-        <v>1.7247097844112769</v>
+        <v>3.4494195688225537</v>
       </c>
       <c r="C49" s="2">
         <v>5</v>
       </c>
       <c r="D49" s="2">
-        <v>3.2752902155887229</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.5505804311774463</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1.4495192307692308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3.4494195688225537</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.5505804311774463</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1.4495192307692308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="2">
+        <v>11.2106135986733</v>
+      </c>
+      <c r="C51" s="2">
+        <v>16</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4.7893864013267002</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1.4272189349112427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="B50" s="2">
-        <v>7.7611940298507456</v>
-      </c>
-      <c r="C50" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" s="2">
-        <v>3.2388059701492544</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51" s="2">
-        <v>7.7611940298507456</v>
-      </c>
-      <c r="C51" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" s="2">
-        <v>3.2388059701492544</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>116</v>
       </c>
       <c r="B52" s="2">
         <v>7.7611940298507456</v>
@@ -2362,10 +2537,13 @@
       <c r="D52" s="2">
         <v>3.2388059701492544</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>155</v>
+      <c r="E52" s="4">
+        <v>1.4173076923076924</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B53" s="2">
         <v>7.7611940298507456</v>
@@ -2376,528 +2554,642 @@
       <c r="D53" s="2">
         <v>3.2388059701492544</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>70</v>
+      <c r="E53" s="4">
+        <v>1.4173076923076924</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="B54" s="2">
-        <v>13.797678275290215</v>
+        <v>7.7611940298507456</v>
       </c>
       <c r="C54" s="2">
+        <v>11</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3.2388059701492544</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1.4173076923076924</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="2">
+        <v>7.7611940298507456</v>
+      </c>
+      <c r="C55" s="2">
+        <v>11</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3.2388059701492544</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1.4173076923076924</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="2">
+        <v>12.072968490878939</v>
+      </c>
+      <c r="C56" s="2">
         <v>17</v>
       </c>
-      <c r="D54" s="2">
-        <v>3.202321724709785</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>252</v>
-      </c>
-      <c r="B55" s="2">
-        <v>0.86235489220563843</v>
-      </c>
-      <c r="C55" s="2">
-        <v>4</v>
-      </c>
-      <c r="D55" s="2">
-        <v>3.1376451077943615</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>255</v>
-      </c>
-      <c r="B56" s="2">
-        <v>0.86235489220563843</v>
-      </c>
-      <c r="C56" s="2">
-        <v>4</v>
-      </c>
       <c r="D56" s="2">
-        <v>3.1376451077943615</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>157</v>
+        <v>4.9270315091210612</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1.4081043956043955</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B57" s="2">
-        <v>6.0364842454394694</v>
+        <v>16.384742951907132</v>
       </c>
       <c r="C57" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D57" s="2">
-        <v>2.9635157545605306</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>150</v>
+        <v>6.6152570480928681</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1.4037449392712549</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B58" s="2">
-        <v>5.1741293532338304</v>
+        <v>16.384742951907132</v>
       </c>
       <c r="C58" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D58" s="2">
-        <v>2.8258706467661696</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>88</v>
+        <v>6.6152570480928681</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1.4037449392712549</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B59" s="2">
-        <v>11.2106135986733</v>
+        <v>12.935323383084576</v>
       </c>
       <c r="C59" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2">
-        <v>2.7893864013267002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5.064676616915424</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1.3915384615384616</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2">
-        <v>11.2106135986733</v>
+        <v>8.6235489220563846</v>
       </c>
       <c r="C60" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2">
-        <v>2.7893864013267002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.3764510779436154</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1.3915384615384616</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="B61" s="2">
-        <v>17.247097844112769</v>
+        <v>4.3117744610281923</v>
       </c>
       <c r="C61" s="2">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D61" s="2">
-        <v>2.7529021558872309</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.6882255389718077</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1.3915384615384616</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B62" s="2">
         <v>4.3117744610281923</v>
       </c>
       <c r="C62" s="2">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1.6882255389718077</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1.3915384615384616</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="2">
+        <v>9.4859038142620236</v>
+      </c>
+      <c r="C63" s="2">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3.5140961857379764</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1.3704545454545454</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="2">
+        <v>14.660033167495854</v>
+      </c>
+      <c r="C64" s="2">
+        <v>20</v>
+      </c>
+      <c r="D64" s="2">
+        <v>5.3399668325041461</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1.3642533936651584</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65" s="2">
+        <v>5.1741293532338304</v>
+      </c>
+      <c r="C65" s="2">
         <v>7</v>
       </c>
-      <c r="D62" s="2">
-        <v>2.6882255389718077</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>223</v>
-      </c>
-      <c r="B63" s="2">
-        <v>3.4494195688225537</v>
-      </c>
-      <c r="C63" s="2">
-        <v>6</v>
-      </c>
-      <c r="D63" s="2">
-        <v>2.5505804311774463</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" s="2">
-        <v>9.4859038142620236</v>
-      </c>
-      <c r="C64" s="2">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2">
-        <v>2.5140961857379764</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="2">
-        <v>15.522388059701491</v>
-      </c>
-      <c r="C65" s="2">
+      <c r="D65" s="2">
+        <v>1.8258706467661696</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1.3528846153846155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="2">
+        <v>12.072968490878939</v>
+      </c>
+      <c r="C66" s="2">
+        <v>16</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3.9270315091210612</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1.3252747252747252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="2">
+        <v>6.0364842454394694</v>
+      </c>
+      <c r="C67" s="2">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1.9635157545605306</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1.3252747252747252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="2">
+        <v>6.0364842454394694</v>
+      </c>
+      <c r="C68" s="2">
+        <v>8</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1.9635157545605306</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1.3252747252747252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="2">
+        <v>18.971807628524047</v>
+      </c>
+      <c r="C69" s="2">
+        <v>25</v>
+      </c>
+      <c r="D69" s="2">
+        <v>6.0281923714759529</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1.3177447552447552</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2">
+        <v>13.797678275290215</v>
+      </c>
+      <c r="C70" s="2">
         <v>18</v>
       </c>
-      <c r="D65" s="2">
-        <v>2.4776119402985088</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>195</v>
-      </c>
-      <c r="B66" s="2">
-        <v>2.5870646766169152</v>
-      </c>
-      <c r="C66" s="2">
-        <v>5</v>
-      </c>
-      <c r="D66" s="2">
-        <v>2.4129353233830848</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>218</v>
-      </c>
-      <c r="B67" s="2">
-        <v>2.5870646766169152</v>
-      </c>
-      <c r="C67" s="2">
-        <v>5</v>
-      </c>
-      <c r="D67" s="2">
-        <v>2.4129353233830848</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>220</v>
-      </c>
-      <c r="B68" s="2">
-        <v>2.5870646766169152</v>
-      </c>
-      <c r="C68" s="2">
-        <v>5</v>
-      </c>
-      <c r="D68" s="2">
-        <v>2.4129353233830848</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" s="2">
-        <v>8.6235489220563846</v>
-      </c>
-      <c r="C69" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" s="2">
-        <v>2.3764510779436154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>209</v>
-      </c>
-      <c r="B70" s="2">
-        <v>1.7247097844112769</v>
-      </c>
-      <c r="C70" s="2">
-        <v>4</v>
-      </c>
       <c r="D70" s="2">
-        <v>2.2752902155887229</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4.202321724709785</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1.3045673076923077</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="B71" s="2">
-        <v>7.7611940298507456</v>
+        <v>13.797678275290215</v>
       </c>
       <c r="C71" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2">
-        <v>2.2388059701492544</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4.202321724709785</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1.3045673076923077</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B72" s="2">
         <v>13.797678275290215</v>
       </c>
       <c r="C72" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2">
-        <v>2.202321724709785</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>227</v>
+        <v>4.202321724709785</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1.3045673076923077</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B73" s="2">
-        <v>0.86235489220563843</v>
+        <v>14.660033167495854</v>
       </c>
       <c r="C73" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D73" s="2">
-        <v>2.1376451077943615</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4.3399668325041461</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1.2960407239819005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2">
-        <v>6.0364842454394694</v>
+        <v>7.7611940298507456</v>
       </c>
       <c r="C74" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D74" s="2">
-        <v>1.9635157545605306</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.2388059701492544</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1.2884615384615385</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2">
-        <v>6.0364842454394694</v>
+        <v>8.6235489220563846</v>
       </c>
       <c r="C75" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D75" s="2">
-        <v>1.9635157545605306</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.3764510779436154</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1.2755769230769232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2">
-        <v>5.1741293532338304</v>
+        <v>9.4859038142620236</v>
       </c>
       <c r="C76" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2">
-        <v>1.8258706467661696</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.5140961857379764</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1.265034965034965</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2">
         <v>11.2106135986733</v>
       </c>
       <c r="C77" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2">
-        <v>1.7893864013267002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.7893864013267002</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1.2488165680473373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2">
         <v>11.2106135986733</v>
       </c>
       <c r="C78" s="2">
+        <v>14</v>
+      </c>
+      <c r="D78" s="2">
+        <v>2.7893864013267002</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1.2488165680473373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="2">
+        <v>13.797678275290215</v>
+      </c>
+      <c r="C79" s="2">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2">
+        <v>3.202321724709785</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1.2320913461538463</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="2">
+      <c r="B80" s="2">
+        <v>24.145936981757878</v>
+      </c>
+      <c r="C80" s="2">
+        <v>29</v>
+      </c>
+      <c r="D80" s="2">
+        <v>4.8540630182421225</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1.2010302197802198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="2">
+        <v>28.457711442786067</v>
+      </c>
+      <c r="C81" s="2">
+        <v>33</v>
+      </c>
+      <c r="D81" s="2">
+        <v>4.5422885572139329</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" s="2">
+        <v>22.4212271973466</v>
+      </c>
+      <c r="C82" s="2">
+        <v>26</v>
+      </c>
+      <c r="D82" s="2">
+        <v>3.5787728026534005</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="2">
+        <v>20.696517412935322</v>
+      </c>
+      <c r="C83" s="2">
+        <v>24</v>
+      </c>
+      <c r="D83" s="2">
+        <v>3.3034825870646785</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" s="2">
+        <v>17.247097844112769</v>
+      </c>
+      <c r="C84" s="2">
+        <v>20</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2.7529021558872309</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="2">
+        <v>15.522388059701491</v>
+      </c>
+      <c r="C85" s="2">
+        <v>18</v>
+      </c>
+      <c r="D85" s="2">
+        <v>2.4776119402985088</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" s="2">
+        <v>13.797678275290215</v>
+      </c>
+      <c r="C86" s="2">
+        <v>16</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2.202321724709785</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="2">
+        <v>11.2106135986733</v>
+      </c>
+      <c r="C87" s="2">
+        <v>13</v>
+      </c>
+      <c r="D87" s="2">
         <v>1.7893864013267002</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>41</v>
-      </c>
-      <c r="B79" s="2">
-        <v>17.247097844112769</v>
-      </c>
-      <c r="C79" s="2">
-        <v>19</v>
-      </c>
-      <c r="D79" s="2">
-        <v>1.7529021558872309</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>183</v>
-      </c>
-      <c r="B80" s="2">
-        <v>4.3117744610281923</v>
-      </c>
-      <c r="C80" s="2">
-        <v>6</v>
-      </c>
-      <c r="D80" s="2">
-        <v>1.6882255389718077</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>182</v>
-      </c>
-      <c r="B81" s="2">
-        <v>4.3117744610281923</v>
-      </c>
-      <c r="C81" s="2">
-        <v>6</v>
-      </c>
-      <c r="D81" s="2">
-        <v>1.6882255389718077</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="E87" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <v>11.2106135986733</v>
+      </c>
+      <c r="C88" s="2">
+        <v>13</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1.7893864013267002</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B89" s="2">
         <v>10.348258706467661</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C89" s="2">
         <v>12</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D89" s="2">
         <v>1.6517412935323392</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" s="2">
-        <v>3.4494195688225537</v>
-      </c>
-      <c r="C83" s="2">
-        <v>5</v>
-      </c>
-      <c r="D83" s="2">
-        <v>1.5505804311774463</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>198</v>
-      </c>
-      <c r="B84" s="2">
-        <v>3.4494195688225537</v>
-      </c>
-      <c r="C84" s="2">
-        <v>5</v>
-      </c>
-      <c r="D84" s="2">
-        <v>1.5505804311774463</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>199</v>
-      </c>
-      <c r="B85" s="2">
-        <v>2.5870646766169152</v>
-      </c>
-      <c r="C85" s="2">
-        <v>4</v>
-      </c>
-      <c r="D85" s="2">
-        <v>1.4129353233830848</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>204</v>
-      </c>
-      <c r="B86" s="2">
-        <v>2.5870646766169152</v>
-      </c>
-      <c r="C86" s="2">
-        <v>4</v>
-      </c>
-      <c r="D86" s="2">
-        <v>1.4129353233830848</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="E89" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>137</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B90" s="2">
         <v>8.6235489220563846</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C90" s="2">
         <v>10</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D90" s="2">
         <v>1.3764510779436154</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>25</v>
-      </c>
-      <c r="B88" s="2">
-        <v>20.696517412935322</v>
-      </c>
-      <c r="C88" s="2">
-        <v>22</v>
-      </c>
-      <c r="D88" s="2">
-        <v>1.3034825870646785</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>210</v>
-      </c>
-      <c r="B89" s="2">
-        <v>1.7247097844112769</v>
-      </c>
-      <c r="C89" s="2">
-        <v>3</v>
-      </c>
-      <c r="D89" s="2">
-        <v>1.2752902155887231</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="E90" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>139</v>
-      </c>
-      <c r="B90" s="2">
-        <v>7.7611940298507456</v>
-      </c>
-      <c r="C90" s="2">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2">
-        <v>1.2388059701492544</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>117</v>
       </c>
       <c r="B91" s="2">
         <v>7.7611940298507456</v>
@@ -2908,10 +3200,13 @@
       <c r="D91" s="2">
         <v>1.2388059701492544</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2">
         <v>7.7611940298507456</v>
@@ -2922,288 +3217,351 @@
       <c r="D92" s="2">
         <v>1.2388059701492544</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>149</v>
+      </c>
+      <c r="B93" s="2">
+        <v>7.7611940298507456</v>
+      </c>
+      <c r="C93" s="2">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1.2388059701492544</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>151</v>
+      </c>
+      <c r="B94" s="2">
+        <v>6.0364842454394694</v>
+      </c>
+      <c r="C94" s="2">
+        <v>7</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.96351575456053062</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" s="2">
+        <v>3.4494195688225537</v>
+      </c>
+      <c r="C95" s="2">
+        <v>4</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.55058043117744626</v>
+      </c>
+      <c r="E95" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>222</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2.5870646766169152</v>
+      </c>
+      <c r="C96" s="2">
+        <v>3</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.41293532338308481</v>
+      </c>
+      <c r="E96" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2.5870646766169152</v>
+      </c>
+      <c r="C97" s="2">
+        <v>3</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.41293532338308481</v>
+      </c>
+      <c r="E97" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2.5870646766169152</v>
+      </c>
+      <c r="C98" s="2">
+        <v>3</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0.41293532338308481</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>231</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1.7247097844112769</v>
+      </c>
+      <c r="C99" s="2">
+        <v>2</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0.27529021558872313</v>
+      </c>
+      <c r="E99" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>232</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1.7247097844112769</v>
+      </c>
+      <c r="C100" s="2">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.27529021558872313</v>
+      </c>
+      <c r="E100" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>241</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.86235489220563843</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0.13764510779436157</v>
+      </c>
+      <c r="E101" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>243</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0.86235489220563843</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0.13764510779436157</v>
+      </c>
+      <c r="E102" s="4">
+        <v>1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>41</v>
+      </c>
+      <c r="B103" s="2">
+        <v>17.247097844112769</v>
+      </c>
+      <c r="C103" s="2">
+        <v>19</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1.7529021558872309</v>
+      </c>
+      <c r="E103" s="4">
+        <v>1.1016346153846155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>60</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B104" s="2">
         <v>13.797678275290215</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C104" s="2">
         <v>15</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D104" s="2">
         <v>1.202321724709785</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="E104" s="4">
+        <v>1.0871394230769231</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="2">
+        <v>39.668325041459369</v>
+      </c>
+      <c r="C105" s="2">
+        <v>43</v>
+      </c>
+      <c r="D105" s="2">
+        <v>3.3316749585406313</v>
+      </c>
+      <c r="E105" s="4">
+        <v>1.0839882943143813</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106" s="2">
+        <v>12.935323383084576</v>
+      </c>
+      <c r="C106" s="2">
+        <v>14</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1.064676616915424</v>
+      </c>
+      <c r="E106" s="4">
+        <v>1.0823076923076924</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>90</v>
+      </c>
+      <c r="B107" s="2">
+        <v>11.2106135986733</v>
+      </c>
+      <c r="C107" s="2">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0.78938640132670024</v>
+      </c>
+      <c r="E107" s="4">
+        <v>1.0704142011834319</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" s="2">
+        <v>20.696517412935322</v>
+      </c>
+      <c r="C108" s="2">
+        <v>22</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1.3034825870646785</v>
+      </c>
+      <c r="E108" s="4">
+        <v>1.0629807692307693</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B109" s="2">
         <v>19.834162520729684</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C109" s="2">
         <v>21</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D109" s="2">
         <v>1.1658374792703157</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>239</v>
-      </c>
-      <c r="B95" s="2">
-        <v>0.86235489220563843</v>
-      </c>
-      <c r="C95" s="2">
-        <v>2</v>
-      </c>
-      <c r="D95" s="2">
-        <v>1.1376451077943615</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>248</v>
-      </c>
-      <c r="B96" s="2">
-        <v>0.86235489220563843</v>
-      </c>
-      <c r="C96" s="2">
-        <v>2</v>
-      </c>
-      <c r="D96" s="2">
-        <v>1.1376451077943615</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>249</v>
-      </c>
-      <c r="B97" s="2">
-        <v>0.86235489220563843</v>
-      </c>
-      <c r="C97" s="2">
-        <v>2</v>
-      </c>
-      <c r="D97" s="2">
-        <v>1.1376451077943615</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>256</v>
-      </c>
-      <c r="B98" s="2">
-        <v>0.86235489220563843</v>
-      </c>
-      <c r="C98" s="2">
-        <v>2</v>
-      </c>
-      <c r="D98" s="2">
-        <v>1.1376451077943615</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>81</v>
-      </c>
-      <c r="B99" s="2">
-        <v>12.935323383084576</v>
-      </c>
-      <c r="C99" s="2">
-        <v>14</v>
-      </c>
-      <c r="D99" s="2">
-        <v>1.064676616915424</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>14</v>
-      </c>
-      <c r="B100" s="2">
-        <v>25.008291873963515</v>
-      </c>
-      <c r="C100" s="2">
-        <v>26</v>
-      </c>
-      <c r="D100" s="2">
-        <v>0.99170812603648528</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>151</v>
-      </c>
-      <c r="B101" s="2">
-        <v>6.0364842454394694</v>
-      </c>
-      <c r="C101" s="2">
-        <v>7</v>
-      </c>
-      <c r="D101" s="2">
-        <v>0.96351575456053062</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="E109" s="4">
+        <v>1.0587792642140468</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2">
+        <v>9.4859038142620236</v>
+      </c>
+      <c r="C110" s="2">
+        <v>10</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0.51409618573797644</v>
+      </c>
+      <c r="E110" s="4">
+        <v>1.0541958041958042</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>38</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B111" s="2">
         <v>18.109452736318406</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C111" s="2">
         <v>19</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D111" s="2">
         <v>0.89054726368159365</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="E111" s="4">
+        <v>1.0491758241758242</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" s="2">
+        <v>17.247097844112769</v>
+      </c>
+      <c r="C112" s="2">
         <v>18</v>
       </c>
-      <c r="B103" s="2">
-        <v>24.145936981757878</v>
-      </c>
-      <c r="C103" s="2">
-        <v>25</v>
-      </c>
-      <c r="D103" s="2">
-        <v>0.8540630182421225</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>90</v>
-      </c>
-      <c r="B104" s="2">
-        <v>11.2106135986733</v>
-      </c>
-      <c r="C104" s="2">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2">
-        <v>0.78938640132670024</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>40</v>
-      </c>
-      <c r="B105" s="2">
-        <v>17.247097844112769</v>
-      </c>
-      <c r="C105" s="2">
-        <v>18</v>
-      </c>
-      <c r="D105" s="2">
+      <c r="D112" s="2">
         <v>0.75290215588723086</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>143</v>
-      </c>
-      <c r="B106" s="2">
-        <v>3.4494195688225537</v>
-      </c>
-      <c r="C106" s="2">
-        <v>4</v>
-      </c>
-      <c r="D106" s="2">
-        <v>0.55058043117744626</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107" s="2">
-        <v>9.4859038142620236</v>
-      </c>
-      <c r="C107" s="2">
-        <v>10</v>
-      </c>
-      <c r="D107" s="2">
-        <v>0.51409618573797644</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="2">
-        <v>40.530679933665006</v>
-      </c>
-      <c r="C108" s="2">
-        <v>41</v>
-      </c>
-      <c r="D108" s="2">
-        <v>0.46932006633499412</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>222</v>
-      </c>
-      <c r="B109" s="2">
-        <v>2.5870646766169152</v>
-      </c>
-      <c r="C109" s="2">
-        <v>3</v>
-      </c>
-      <c r="D109" s="2">
-        <v>0.41293532338308481</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>189</v>
-      </c>
-      <c r="B110" s="2">
-        <v>2.5870646766169152</v>
-      </c>
-      <c r="C110" s="2">
-        <v>3</v>
-      </c>
-      <c r="D110" s="2">
-        <v>0.41293532338308481</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>200</v>
-      </c>
-      <c r="B111" s="2">
-        <v>2.5870646766169152</v>
-      </c>
-      <c r="C111" s="2">
-        <v>3</v>
-      </c>
-      <c r="D111" s="2">
-        <v>0.41293532338308481</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" s="2">
-        <v>27.59535655058043</v>
-      </c>
-      <c r="C112" s="2">
-        <v>28</v>
-      </c>
-      <c r="D112" s="2">
-        <v>0.40464344941957009</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112" s="4">
+        <v>1.0436538461538463</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -3216,106 +3574,130 @@
       <c r="D113" s="2">
         <v>0.37645107794361543</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113" s="4">
+        <v>1.0436538461538463</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" s="2">
+        <v>25.008291873963515</v>
+      </c>
+      <c r="C114" s="2">
+        <v>26</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0.99170812603648528</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1.0396551724137932</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" s="2">
+        <v>24.145936981757878</v>
+      </c>
+      <c r="C115" s="2">
+        <v>25</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0.8540630182421225</v>
+      </c>
+      <c r="E115" s="4">
+        <v>1.0353708791208791</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>63</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B116" s="2">
         <v>14.660033167495854</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C116" s="2">
         <v>15</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D116" s="2">
         <v>0.33996683250414605</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="E116" s="4">
+        <v>1.0231900452488687</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>57</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B117" s="2">
         <v>14.660033167495854</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C117" s="2">
         <v>15</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D117" s="2">
         <v>0.33996683250414605</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>231</v>
-      </c>
-      <c r="B116" s="2">
-        <v>1.7247097844112769</v>
-      </c>
-      <c r="C116" s="2">
-        <v>2</v>
-      </c>
-      <c r="D116" s="2">
-        <v>0.27529021558872313</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>232</v>
-      </c>
-      <c r="B117" s="2">
-        <v>1.7247097844112769</v>
-      </c>
-      <c r="C117" s="2">
-        <v>2</v>
-      </c>
-      <c r="D117" s="2">
-        <v>0.27529021558872313</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117" s="4">
+        <v>1.0231900452488687</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="2">
+        <v>27.59535655058043</v>
+      </c>
+      <c r="C118" s="2">
+        <v>28</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0.40464344941957009</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1.0146634615384615</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>71</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B119" s="2">
         <v>13.797678275290215</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C119" s="2">
         <v>14</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D119" s="2">
         <v>0.20232172470978504</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>241</v>
-      </c>
-      <c r="B119" s="2">
-        <v>0.86235489220563843</v>
-      </c>
-      <c r="C119" s="2">
-        <v>1</v>
-      </c>
-      <c r="D119" s="2">
-        <v>0.13764510779436157</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119" s="4">
+        <v>1.0146634615384615</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="B120" s="2">
-        <v>0.86235489220563843</v>
+        <v>40.530679933665006</v>
       </c>
       <c r="C120" s="2">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D120" s="2">
-        <v>0.13764510779436157</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.46932006633499412</v>
+      </c>
+      <c r="E120" s="4">
+        <v>1.0115793780687399</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>72</v>
       </c>
@@ -3328,8 +3710,11 @@
       <c r="D121" s="2">
         <v>6.4676616915424034E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121" s="4">
+        <v>1.0050000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -3342,8 +3727,11 @@
       <c r="D122" s="2">
         <v>1.9900497512438164E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122" s="4">
+        <v>1.0004524886877828</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -3356,8 +3744,11 @@
       <c r="D123" s="2">
         <v>-8.2918739635147176E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123" s="4">
+        <v>0.99966843501326264</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -3370,8 +3761,11 @@
       <c r="D124" s="2">
         <v>-8.2918739635147176E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124" s="4">
+        <v>0.99966843501326264</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>168</v>
       </c>
@@ -3384,8 +3778,11 @@
       <c r="D125" s="2">
         <v>-3.6484245439469376E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125" s="4">
+        <v>0.99395604395604398</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>79</v>
       </c>
@@ -3398,136 +3795,166 @@
       <c r="D126" s="2">
         <v>-7.2968490878938752E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126" s="4">
+        <v>0.99395604395604398</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>36</v>
+      </c>
+      <c r="B127" s="2">
+        <v>17.247097844112769</v>
+      </c>
+      <c r="C127" s="2">
+        <v>17</v>
+      </c>
+      <c r="D127" s="2">
+        <v>-0.24709784411276914</v>
+      </c>
+      <c r="E127" s="4">
+        <v>0.98567307692307693</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>59</v>
+      </c>
+      <c r="B128" s="2">
+        <v>16.384742951907132</v>
+      </c>
+      <c r="C128" s="2">
+        <v>16</v>
+      </c>
+      <c r="D128" s="2">
+        <v>-0.38474295190713192</v>
+      </c>
+      <c r="E128" s="4">
+        <v>0.97651821862348176</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="2">
+        <v>26.733001658374793</v>
+      </c>
+      <c r="C129" s="2">
+        <v>26</v>
+      </c>
+      <c r="D129" s="2">
+        <v>-0.7330016583747927</v>
+      </c>
+      <c r="E129" s="4">
+        <v>0.97258064516129028</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="2">
+        <v>26.733001658374793</v>
+      </c>
+      <c r="C130" s="2">
+        <v>26</v>
+      </c>
+      <c r="D130" s="2">
+        <v>-0.7330016583747927</v>
+      </c>
+      <c r="E130" s="4">
+        <v>0.97258064516129028</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>159</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B131" s="2">
         <v>5.1741293532338304</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C131" s="2">
         <v>5</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D131" s="2">
         <v>-0.17412935323383039</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="E131" s="4">
+        <v>0.96634615384615397</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>185</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B132" s="2">
         <v>5.1741293532338304</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C132" s="2">
         <v>5</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D132" s="2">
         <v>-0.17412935323383039</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="E132" s="4">
+        <v>0.96634615384615397</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>162</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B133" s="2">
         <v>5.1741293532338304</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C133" s="2">
         <v>5</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D133" s="2">
         <v>-0.17412935323383039</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>36</v>
-      </c>
-      <c r="B130" s="2">
-        <v>17.247097844112769</v>
-      </c>
-      <c r="C130" s="2">
-        <v>17</v>
-      </c>
-      <c r="D130" s="2">
-        <v>-0.24709784411276914</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>171</v>
-      </c>
-      <c r="B131" s="2">
-        <v>4.3117744610281923</v>
-      </c>
-      <c r="C131" s="2">
-        <v>4</v>
-      </c>
-      <c r="D131" s="2">
-        <v>-0.31177446102819228</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="E133" s="4">
+        <v>0.96634615384615397</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>100</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B134" s="2">
         <v>10.348258706467661</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C134" s="2">
         <v>10</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D134" s="2">
         <v>-0.34825870646766077</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>59</v>
-      </c>
-      <c r="B133" s="2">
-        <v>16.384742951907132</v>
-      </c>
-      <c r="C133" s="2">
-        <v>16</v>
-      </c>
-      <c r="D133" s="2">
-        <v>-0.38474295190713192</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>179</v>
-      </c>
-      <c r="B134" s="2">
-        <v>3.4494195688225537</v>
-      </c>
-      <c r="C134" s="2">
-        <v>3</v>
-      </c>
-      <c r="D134" s="2">
-        <v>-0.44941956882255374</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134" s="4">
+        <v>0.96634615384615397</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="B135" s="2">
-        <v>9.4859038142620236</v>
+        <v>15.522388059701491</v>
       </c>
       <c r="C135" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D135" s="2">
-        <v>-0.48590381426202356</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-0.52238805970149116</v>
+      </c>
+      <c r="E135" s="4">
+        <v>0.96634615384615397</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B136" s="2">
         <v>15.522388059701491</v>
@@ -3538,862 +3965,1048 @@
       <c r="D136" s="2">
         <v>-0.52238805970149116</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136" s="4">
+        <v>0.96634615384615397</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B137" s="2">
+        <v>20.696517412935322</v>
+      </c>
+      <c r="C137" s="2">
+        <v>20</v>
+      </c>
+      <c r="D137" s="2">
+        <v>-0.69651741293532154</v>
+      </c>
+      <c r="E137" s="4">
+        <v>0.96634615384615397</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>42</v>
+      </c>
+      <c r="B138" s="2">
+        <v>14.660033167495854</v>
+      </c>
+      <c r="C138" s="2">
+        <v>14</v>
+      </c>
+      <c r="D138" s="2">
+        <v>-0.66003316749585395</v>
+      </c>
+      <c r="E138" s="4">
+        <v>0.95497737556561091</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>258</v>
+      </c>
+      <c r="B139" s="2">
+        <v>29.320066334991708</v>
+      </c>
+      <c r="C139" s="2">
+        <v>28</v>
+      </c>
+      <c r="D139" s="2">
+        <v>-1.3200663349917079</v>
+      </c>
+      <c r="E139" s="4">
+        <v>0.95497737556561091</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>102</v>
+      </c>
+      <c r="B140" s="2">
+        <v>9.4859038142620236</v>
+      </c>
+      <c r="C140" s="2">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2">
+        <v>-0.48590381426202356</v>
+      </c>
+      <c r="E140" s="4">
+        <v>0.94877622377622373</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>54</v>
+      </c>
+      <c r="B141" s="2">
+        <v>13.797678275290215</v>
+      </c>
+      <c r="C141" s="2">
+        <v>13</v>
+      </c>
+      <c r="D141" s="2">
+        <v>-0.79767827529021496</v>
+      </c>
+      <c r="E141" s="4">
+        <v>0.94218750000000007</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>171</v>
+      </c>
+      <c r="B142" s="2">
+        <v>4.3117744610281923</v>
+      </c>
+      <c r="C142" s="2">
+        <v>4</v>
+      </c>
+      <c r="D142" s="2">
+        <v>-0.31177446102819228</v>
+      </c>
+      <c r="E142" s="4">
+        <v>0.9276923076923077</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>103</v>
+      </c>
+      <c r="B143" s="2">
+        <v>8.6235489220563846</v>
+      </c>
+      <c r="C143" s="2">
+        <v>8</v>
+      </c>
+      <c r="D143" s="2">
+        <v>-0.62354892205638457</v>
+      </c>
+      <c r="E143" s="4">
+        <v>0.9276923076923077</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="2">
+        <v>43.117744610281925</v>
+      </c>
+      <c r="C144" s="2">
+        <v>40</v>
+      </c>
+      <c r="D144" s="2">
+        <v>-3.1177446102819246</v>
+      </c>
+      <c r="E144" s="4">
+        <v>0.9276923076923077</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" s="2">
+        <v>20.696517412935322</v>
+      </c>
+      <c r="C145" s="2">
+        <v>19</v>
+      </c>
+      <c r="D145" s="2">
+        <v>-1.6965174129353215</v>
+      </c>
+      <c r="E145" s="4">
+        <v>0.91802884615384628</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>30</v>
+      </c>
+      <c r="B146" s="2">
+        <v>20.696517412935322</v>
+      </c>
+      <c r="C146" s="2">
+        <v>19</v>
+      </c>
+      <c r="D146" s="2">
+        <v>-1.6965174129353215</v>
+      </c>
+      <c r="E146" s="4">
+        <v>0.91802884615384628</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>32</v>
+      </c>
+      <c r="B147" s="2">
+        <v>19.834162520729684</v>
+      </c>
+      <c r="C147" s="2">
+        <v>18</v>
+      </c>
+      <c r="D147" s="2">
+        <v>-1.8341625207296843</v>
+      </c>
+      <c r="E147" s="4">
+        <v>0.90752508361204021</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148" s="2">
+        <v>19.834162520729684</v>
+      </c>
+      <c r="C148" s="2">
+        <v>18</v>
+      </c>
+      <c r="D148" s="2">
+        <v>-1.8341625207296843</v>
+      </c>
+      <c r="E148" s="4">
+        <v>0.90752508361204021</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>138</v>
+      </c>
+      <c r="B149" s="2">
+        <v>7.7611940298507456</v>
+      </c>
+      <c r="C149" s="2">
+        <v>7</v>
+      </c>
+      <c r="D149" s="2">
+        <v>-0.76119402985074558</v>
+      </c>
+      <c r="E149" s="4">
+        <v>0.90192307692307705</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>62</v>
+      </c>
+      <c r="B150" s="2">
         <v>15.522388059701491</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C150" s="2">
+        <v>14</v>
+      </c>
+      <c r="D150" s="2">
+        <v>-1.5223880597014912</v>
+      </c>
+      <c r="E150" s="4">
+        <v>0.90192307692307705</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" s="2">
+        <v>21.558872305140962</v>
+      </c>
+      <c r="C151" s="2">
+        <v>19</v>
+      </c>
+      <c r="D151" s="2">
+        <v>-2.5588723051409623</v>
+      </c>
+      <c r="E151" s="4">
+        <v>0.88130769230769224</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152" s="2">
+        <v>21.558872305140962</v>
+      </c>
+      <c r="C152" s="2">
+        <v>19</v>
+      </c>
+      <c r="D152" s="2">
+        <v>-2.5588723051409623</v>
+      </c>
+      <c r="E152" s="4">
+        <v>0.88130769230769224</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>107</v>
+      </c>
+      <c r="B153" s="2">
+        <v>10.348258706467661</v>
+      </c>
+      <c r="C153" s="2">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2">
+        <v>-1.3482587064676608</v>
+      </c>
+      <c r="E153" s="4">
+        <v>0.86971153846153859</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>91</v>
+      </c>
+      <c r="B154" s="2">
+        <v>10.348258706467661</v>
+      </c>
+      <c r="C154" s="2">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2">
+        <v>-1.3482587064676608</v>
+      </c>
+      <c r="E154" s="4">
+        <v>0.86971153846153859</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>179</v>
+      </c>
+      <c r="B155" s="2">
+        <v>3.4494195688225537</v>
+      </c>
+      <c r="C155" s="2">
+        <v>3</v>
+      </c>
+      <c r="D155" s="2">
+        <v>-0.44941956882255374</v>
+      </c>
+      <c r="E155" s="4">
+        <v>0.86971153846153848</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>58</v>
+      </c>
+      <c r="B156" s="2">
+        <v>13.797678275290215</v>
+      </c>
+      <c r="C156" s="2">
+        <v>12</v>
+      </c>
+      <c r="D156" s="2">
+        <v>-1.797678275290215</v>
+      </c>
+      <c r="E156" s="4">
+        <v>0.86971153846153848</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>69</v>
+      </c>
+      <c r="B157" s="2">
+        <v>13.797678275290215</v>
+      </c>
+      <c r="C157" s="2">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2">
+        <v>-1.797678275290215</v>
+      </c>
+      <c r="E157" s="4">
+        <v>0.86971153846153848</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>39</v>
+      </c>
+      <c r="B158" s="2">
+        <v>17.247097844112769</v>
+      </c>
+      <c r="C158" s="2">
         <v>15</v>
       </c>
-      <c r="D137" s="2">
-        <v>-0.52238805970149116</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="D158" s="2">
+        <v>-2.2470978441127691</v>
+      </c>
+      <c r="E158" s="4">
+        <v>0.86971153846153848</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="2">
+        <v>31.907131011608623</v>
+      </c>
+      <c r="C159" s="2">
+        <v>27</v>
+      </c>
+      <c r="D159" s="2">
+        <v>-4.9071310116086231</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0.84620582120582122</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" s="2">
+        <v>27.59535655058043</v>
+      </c>
+      <c r="C160" s="2">
+        <v>23</v>
+      </c>
+      <c r="D160" s="2">
+        <v>-4.5953565505804299</v>
+      </c>
+      <c r="E160" s="4">
+        <v>0.83347355769230769</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>132</v>
+      </c>
+      <c r="B161" s="2">
+        <v>6.0364842454394694</v>
+      </c>
+      <c r="C161" s="2">
+        <v>5</v>
+      </c>
+      <c r="D161" s="2">
+        <v>-1.0364842454394694</v>
+      </c>
+      <c r="E161" s="4">
+        <v>0.82829670329670324</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>142</v>
+      </c>
+      <c r="B162" s="2">
+        <v>6.0364842454394694</v>
+      </c>
+      <c r="C162" s="2">
+        <v>5</v>
+      </c>
+      <c r="D162" s="2">
+        <v>-1.0364842454394694</v>
+      </c>
+      <c r="E162" s="4">
+        <v>0.82829670329670324</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>75</v>
+      </c>
+      <c r="B163" s="2">
+        <v>12.072968490878939</v>
+      </c>
+      <c r="C163" s="2">
+        <v>10</v>
+      </c>
+      <c r="D163" s="2">
+        <v>-2.0729684908789388</v>
+      </c>
+      <c r="E163" s="4">
+        <v>0.82829670329670324</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>80</v>
+      </c>
+      <c r="B164" s="2">
+        <v>12.072968490878939</v>
+      </c>
+      <c r="C164" s="2">
+        <v>10</v>
+      </c>
+      <c r="D164" s="2">
+        <v>-2.0729684908789388</v>
+      </c>
+      <c r="E164" s="4">
+        <v>0.82829670329670324</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>82</v>
+      </c>
+      <c r="B165" s="2">
+        <v>12.072968490878939</v>
+      </c>
+      <c r="C165" s="2">
+        <v>10</v>
+      </c>
+      <c r="D165" s="2">
+        <v>-2.0729684908789388</v>
+      </c>
+      <c r="E165" s="4">
+        <v>0.82829670329670324</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>45</v>
+      </c>
+      <c r="B166" s="2">
+        <v>17.247097844112769</v>
+      </c>
+      <c r="C166" s="2">
+        <v>14</v>
+      </c>
+      <c r="D166" s="2">
+        <v>-3.2470978441127691</v>
+      </c>
+      <c r="E166" s="4">
+        <v>0.81173076923076926</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="2">
+        <v>25.008291873963515</v>
+      </c>
+      <c r="C167" s="2">
+        <v>20</v>
+      </c>
+      <c r="D167" s="2">
+        <v>-5.0082918739635147</v>
+      </c>
+      <c r="E167" s="4">
+        <v>0.79973474801061006</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>52</v>
+      </c>
+      <c r="B168" s="2">
+        <v>13.797678275290215</v>
+      </c>
+      <c r="C168" s="2">
+        <v>11</v>
+      </c>
+      <c r="D168" s="2">
+        <v>-2.797678275290215</v>
+      </c>
+      <c r="E168" s="4">
+        <v>0.79723557692307701</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" s="2">
+        <v>24.145936981757878</v>
+      </c>
+      <c r="C169" s="2">
+        <v>19</v>
+      </c>
+      <c r="D169" s="2">
+        <v>-5.1459369817578775</v>
+      </c>
+      <c r="E169" s="4">
+        <v>0.78688186813186811</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>207</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B170" s="2">
         <v>2.5870646766169152</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C170" s="2">
         <v>2</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D170" s="2">
         <v>-0.58706467661691519</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="E170" s="4">
+        <v>0.77307692307692311</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>208</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B171" s="2">
         <v>2.5870646766169152</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C171" s="2">
         <v>2</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D171" s="2">
         <v>-0.58706467661691519</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="E171" s="4">
+        <v>0.77307692307692311</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>193</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B172" s="2">
         <v>2.5870646766169152</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C172" s="2">
         <v>2</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D172" s="2">
         <v>-0.58706467661691519</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>103</v>
-      </c>
-      <c r="B141" s="2">
-        <v>8.6235489220563846</v>
-      </c>
-      <c r="C141" s="2">
-        <v>8</v>
-      </c>
-      <c r="D141" s="2">
-        <v>-0.62354892205638457</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>42</v>
-      </c>
-      <c r="B142" s="2">
-        <v>14.660033167495854</v>
-      </c>
-      <c r="C142" s="2">
-        <v>14</v>
-      </c>
-      <c r="D142" s="2">
-        <v>-0.66003316749585395</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>29</v>
-      </c>
-      <c r="B143" s="2">
-        <v>20.696517412935322</v>
-      </c>
-      <c r="C143" s="2">
-        <v>20</v>
-      </c>
-      <c r="D143" s="2">
-        <v>-0.69651741293532154</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>215</v>
-      </c>
-      <c r="B144" s="2">
-        <v>1.7247097844112769</v>
-      </c>
-      <c r="C144" s="2">
-        <v>1</v>
-      </c>
-      <c r="D144" s="2">
-        <v>-0.72470978441127687</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>233</v>
-      </c>
-      <c r="B145" s="2">
-        <v>1.7247097844112769</v>
-      </c>
-      <c r="C145" s="2">
-        <v>1</v>
-      </c>
-      <c r="D145" s="2">
-        <v>-0.72470978441127687</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>10</v>
-      </c>
-      <c r="B146" s="2">
-        <v>26.733001658374793</v>
-      </c>
-      <c r="C146" s="2">
-        <v>26</v>
-      </c>
-      <c r="D146" s="2">
-        <v>-0.7330016583747927</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>8</v>
-      </c>
-      <c r="B147" s="2">
-        <v>26.733001658374793</v>
-      </c>
-      <c r="C147" s="2">
-        <v>26</v>
-      </c>
-      <c r="D147" s="2">
-        <v>-0.7330016583747927</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>138</v>
-      </c>
-      <c r="B148" s="2">
-        <v>7.7611940298507456</v>
-      </c>
-      <c r="C148" s="2">
-        <v>7</v>
-      </c>
-      <c r="D148" s="2">
-        <v>-0.76119402985074558</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>54</v>
-      </c>
-      <c r="B149" s="2">
-        <v>13.797678275290215</v>
-      </c>
-      <c r="C149" s="2">
-        <v>13</v>
-      </c>
-      <c r="D149" s="2">
-        <v>-0.79767827529021496</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>132</v>
-      </c>
-      <c r="B150" s="2">
-        <v>6.0364842454394694</v>
-      </c>
-      <c r="C150" s="2">
-        <v>5</v>
-      </c>
-      <c r="D150" s="2">
-        <v>-1.0364842454394694</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>142</v>
-      </c>
-      <c r="B151" s="2">
-        <v>6.0364842454394694</v>
-      </c>
-      <c r="C151" s="2">
-        <v>5</v>
-      </c>
-      <c r="D151" s="2">
-        <v>-1.0364842454394694</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="E172" s="4">
+        <v>0.77307692307692311</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>153</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B173" s="2">
         <v>5.1741293532338304</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C173" s="2">
         <v>4</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D173" s="2">
         <v>-1.1741293532338304</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+      <c r="E173" s="4">
+        <v>0.77307692307692311</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>154</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B174" s="2">
         <v>5.1741293532338304</v>
-      </c>
-      <c r="C153" s="2">
-        <v>4</v>
-      </c>
-      <c r="D153" s="2">
-        <v>-1.1741293532338304</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>160</v>
-      </c>
-      <c r="B154" s="2">
-        <v>5.1741293532338304</v>
-      </c>
-      <c r="C154" s="2">
-        <v>4</v>
-      </c>
-      <c r="D154" s="2">
-        <v>-1.1741293532338304</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>258</v>
-      </c>
-      <c r="B155" s="2">
-        <v>29.320066334991708</v>
-      </c>
-      <c r="C155" s="2">
-        <v>28</v>
-      </c>
-      <c r="D155" s="2">
-        <v>-1.3200663349917079</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>107</v>
-      </c>
-      <c r="B156" s="2">
-        <v>10.348258706467661</v>
-      </c>
-      <c r="C156" s="2">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2">
-        <v>-1.3482587064676608</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>91</v>
-      </c>
-      <c r="B157" s="2">
-        <v>10.348258706467661</v>
-      </c>
-      <c r="C157" s="2">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2">
-        <v>-1.3482587064676608</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>188</v>
-      </c>
-      <c r="B158" s="2">
-        <v>3.4494195688225537</v>
-      </c>
-      <c r="C158" s="2">
-        <v>2</v>
-      </c>
-      <c r="D158" s="2">
-        <v>-1.4494195688225537</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>176</v>
-      </c>
-      <c r="B159" s="2">
-        <v>3.4494195688225537</v>
-      </c>
-      <c r="C159" s="2">
-        <v>2</v>
-      </c>
-      <c r="D159" s="2">
-        <v>-1.4494195688225537</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>62</v>
-      </c>
-      <c r="B160" s="2">
-        <v>15.522388059701491</v>
-      </c>
-      <c r="C160" s="2">
-        <v>14</v>
-      </c>
-      <c r="D160" s="2">
-        <v>-1.5223880597014912</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>203</v>
-      </c>
-      <c r="B161" s="2">
-        <v>2.5870646766169152</v>
-      </c>
-      <c r="C161" s="2">
-        <v>1</v>
-      </c>
-      <c r="D161" s="2">
-        <v>-1.5870646766169152</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>191</v>
-      </c>
-      <c r="B162" s="2">
-        <v>2.5870646766169152</v>
-      </c>
-      <c r="C162" s="2">
-        <v>1</v>
-      </c>
-      <c r="D162" s="2">
-        <v>-1.5870646766169152</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>20</v>
-      </c>
-      <c r="B163" s="2">
-        <v>20.696517412935322</v>
-      </c>
-      <c r="C163" s="2">
-        <v>19</v>
-      </c>
-      <c r="D163" s="2">
-        <v>-1.6965174129353215</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>30</v>
-      </c>
-      <c r="B164" s="2">
-        <v>20.696517412935322</v>
-      </c>
-      <c r="C164" s="2">
-        <v>19</v>
-      </c>
-      <c r="D164" s="2">
-        <v>-1.6965174129353215</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>234</v>
-      </c>
-      <c r="B165" s="2">
-        <v>1.7247097844112769</v>
-      </c>
-      <c r="C165" s="2">
-        <v>0</v>
-      </c>
-      <c r="D165" s="2">
-        <v>-1.7247097844112769</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>58</v>
-      </c>
-      <c r="B166" s="2">
-        <v>13.797678275290215</v>
-      </c>
-      <c r="C166" s="2">
-        <v>12</v>
-      </c>
-      <c r="D166" s="2">
-        <v>-1.797678275290215</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>69</v>
-      </c>
-      <c r="B167" s="2">
-        <v>13.797678275290215</v>
-      </c>
-      <c r="C167" s="2">
-        <v>12</v>
-      </c>
-      <c r="D167" s="2">
-        <v>-1.797678275290215</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>32</v>
-      </c>
-      <c r="B168" s="2">
-        <v>19.834162520729684</v>
-      </c>
-      <c r="C168" s="2">
-        <v>18</v>
-      </c>
-      <c r="D168" s="2">
-        <v>-1.8341625207296843</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>37</v>
-      </c>
-      <c r="B169" s="2">
-        <v>19.834162520729684</v>
-      </c>
-      <c r="C169" s="2">
-        <v>18</v>
-      </c>
-      <c r="D169" s="2">
-        <v>-1.8341625207296843</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>247</v>
-      </c>
-      <c r="B170" s="2">
-        <v>0.86235489220563843</v>
-      </c>
-      <c r="C170" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D170" s="2">
-        <v>-1.8623548922056385</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>250</v>
-      </c>
-      <c r="B171" s="2">
-        <v>0.86235489220563843</v>
-      </c>
-      <c r="C171" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D171" s="2">
-        <v>-1.8623548922056385</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>253</v>
-      </c>
-      <c r="B172" s="2">
-        <v>0.86235489220563843</v>
-      </c>
-      <c r="C172" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D172" s="2">
-        <v>-1.8623548922056385</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>133</v>
-      </c>
-      <c r="B173" s="2">
-        <v>6.8988391376451075</v>
-      </c>
-      <c r="C173" s="2">
-        <v>5</v>
-      </c>
-      <c r="D173" s="2">
-        <v>-1.8988391376451075</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>148</v>
-      </c>
-      <c r="B174" s="2">
-        <v>6.0364842454394694</v>
       </c>
       <c r="C174" s="2">
         <v>4</v>
       </c>
       <c r="D174" s="2">
-        <v>-2.0364842454394694</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1.1741293532338304</v>
+      </c>
+      <c r="E174" s="4">
+        <v>0.77307692307692311</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="B175" s="2">
-        <v>6.0364842454394694</v>
+        <v>5.1741293532338304</v>
       </c>
       <c r="C175" s="2">
         <v>4</v>
       </c>
       <c r="D175" s="2">
-        <v>-2.0364842454394694</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1.1741293532338304</v>
+      </c>
+      <c r="E175" s="4">
+        <v>0.77307692307692311</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B176" s="2">
-        <v>12.072968490878939</v>
+        <v>10.348258706467661</v>
       </c>
       <c r="C176" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D176" s="2">
-        <v>-2.0729684908789388</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-2.3482587064676608</v>
+      </c>
+      <c r="E176" s="4">
+        <v>0.77307692307692311</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B177" s="2">
-        <v>12.072968490878939</v>
+        <v>12.935323383084576</v>
       </c>
       <c r="C177" s="2">
         <v>10</v>
       </c>
       <c r="D177" s="2">
-        <v>-2.0729684908789388</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-2.935323383084576</v>
+      </c>
+      <c r="E177" s="4">
+        <v>0.77307692307692311</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="B178" s="2">
-        <v>12.072968490878939</v>
+        <v>35.356550580431175</v>
       </c>
       <c r="C178" s="2">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D178" s="2">
-        <v>-2.0729684908789388</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-8.3565505804311755</v>
+      </c>
+      <c r="E178" s="4">
+        <v>0.7636491557223265</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="B179" s="2">
-        <v>5.1741293532338304</v>
+        <v>25.008291873963515</v>
       </c>
       <c r="C179" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D179" s="2">
-        <v>-2.1741293532338304</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-6.0082918739635147</v>
+      </c>
+      <c r="E179" s="4">
+        <v>0.75974801061007957</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B180" s="2">
-        <v>17.247097844112769</v>
+        <v>18.971807628524047</v>
       </c>
       <c r="C180" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D180" s="2">
-        <v>-2.2470978441127691</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-4.9718076285240471</v>
+      </c>
+      <c r="E180" s="4">
+        <v>0.73793706293706296</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="B181" s="2">
-        <v>4.3117744610281923</v>
+        <v>6.8988391376451075</v>
       </c>
       <c r="C181" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D181" s="2">
-        <v>-2.3117744610281923</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1.8988391376451075</v>
+      </c>
+      <c r="E181" s="4">
+        <v>0.72475961538461542</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B182" s="2">
-        <v>10.348258706467661</v>
+        <v>11.2106135986733</v>
       </c>
       <c r="C182" s="2">
         <v>8</v>
       </c>
       <c r="D182" s="2">
-        <v>-2.3482587064676608</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-3.2106135986732998</v>
+      </c>
+      <c r="E182" s="4">
+        <v>0.71360946745562137</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="B183" s="2">
-        <v>3.4494195688225537</v>
+        <v>15.522388059701491</v>
       </c>
       <c r="C183" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D183" s="2">
-        <v>-2.4494195688225537</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-4.5223880597014912</v>
+      </c>
+      <c r="E183" s="4">
+        <v>0.70865384615384619</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="B184" s="2">
-        <v>3.4494195688225537</v>
+        <v>31.044776119402982</v>
       </c>
       <c r="C184" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D184" s="2">
-        <v>-2.4494195688225537</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-9.0447761194029823</v>
+      </c>
+      <c r="E184" s="4">
+        <v>0.70865384615384619</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="B185" s="2">
-        <v>3.4494195688225537</v>
+        <v>28.457711442786067</v>
       </c>
       <c r="C185" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D185" s="2">
-        <v>-2.4494195688225537</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-8.4577114427860671</v>
+      </c>
+      <c r="E185" s="4">
+        <v>0.70279720279720281</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="B186" s="2">
-        <v>21.558872305140962</v>
+        <v>6.0364842454394694</v>
       </c>
       <c r="C186" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D186" s="2">
-        <v>-2.5588723051409623</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-2.0364842454394694</v>
+      </c>
+      <c r="E186" s="4">
+        <v>0.66263736263736261</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="B187" s="2">
-        <v>21.558872305140962</v>
+        <v>6.0364842454394694</v>
       </c>
       <c r="C187" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D187" s="2">
-        <v>-2.5588723051409623</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-2.0364842454394694</v>
+      </c>
+      <c r="E187" s="4">
+        <v>0.66263736263736261</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="B188" s="2">
-        <v>2.5870646766169152</v>
+        <v>12.072968490878939</v>
       </c>
       <c r="C188" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D188" s="2">
-        <v>-2.5870646766169152</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-4.0729684908789388</v>
+      </c>
+      <c r="E188" s="4">
+        <v>0.66263736263736261</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="B189" s="2">
-        <v>2.5870646766169152</v>
+        <v>7.7611940298507456</v>
       </c>
       <c r="C189" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D189" s="2">
-        <v>-2.5870646766169152</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-2.7611940298507456</v>
+      </c>
+      <c r="E189" s="4">
+        <v>0.64423076923076927</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
       <c r="B190" s="2">
-        <v>1.7247097844112769</v>
+        <v>7.7611940298507456</v>
       </c>
       <c r="C190" s="2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D190" s="2">
-        <v>-2.7247097844112771</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-2.7611940298507456</v>
+      </c>
+      <c r="E190" s="4">
+        <v>0.64423076923076927</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="B191" s="2">
-        <v>1.7247097844112769</v>
+        <v>9.4859038142620236</v>
       </c>
       <c r="C191" s="2">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D191" s="2">
-        <v>-2.7247097844112771</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-3.4859038142620236</v>
+      </c>
+      <c r="E191" s="4">
+        <v>0.63251748251748252</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="B192" s="2">
-        <v>1.7247097844112769</v>
+        <v>18.971807628524047</v>
       </c>
       <c r="C192" s="2">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2">
-        <v>-2.7247097844112771</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-6.9718076285240471</v>
+      </c>
+      <c r="E192" s="4">
+        <v>0.63251748251748252</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B193" s="2">
         <v>1.7247097844112769</v>
       </c>
       <c r="C193" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D193" s="2">
-        <v>-2.7247097844112771</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-0.72470978441127687</v>
+      </c>
+      <c r="E193" s="4">
+        <v>0.57980769230769236</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c r="B194" s="2">
-        <v>7.7611940298507456</v>
+        <v>1.7247097844112769</v>
       </c>
       <c r="C194" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D194" s="2">
-        <v>-2.7611940298507456</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-0.72470978441127687</v>
+      </c>
+      <c r="E194" s="4">
+        <v>0.57980769230769236</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="B195" s="2">
-        <v>7.7611940298507456</v>
+        <v>3.4494195688225537</v>
       </c>
       <c r="C195" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D195" s="2">
-        <v>-2.7611940298507456</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1.4494195688225537</v>
+      </c>
+      <c r="E195" s="4">
+        <v>0.57980769230769236</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="B196" s="2">
-        <v>13.797678275290215</v>
+        <v>3.4494195688225537</v>
       </c>
       <c r="C196" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D196" s="2">
-        <v>-2.797678275290215</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1.4494195688225537</v>
+      </c>
+      <c r="E196" s="4">
+        <v>0.57980769230769236</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="B197" s="2">
-        <v>0.86235489220563843</v>
+        <v>5.1741293532338304</v>
       </c>
       <c r="C197" s="2">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D197" s="2">
-        <v>-2.8623548922056385</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-2.1741293532338304</v>
+      </c>
+      <c r="E197" s="4">
+        <v>0.57980769230769236</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>120</v>
       </c>
@@ -4406,262 +5019,319 @@
       <c r="D198" s="2">
         <v>-2.8988391376451075</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E198" s="4">
+        <v>0.57980769230769236</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B199" s="2">
-        <v>12.935323383084576</v>
+        <v>8.6235489220563846</v>
       </c>
       <c r="C199" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D199" s="2">
-        <v>-2.935323383084576</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-3.6235489220563846</v>
+      </c>
+      <c r="E199" s="4">
+        <v>0.57980769230769236</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>136</v>
+      </c>
+      <c r="B200" s="2">
+        <v>8.6235489220563846</v>
+      </c>
+      <c r="C200" s="2">
+        <v>5</v>
+      </c>
+      <c r="D200" s="2">
+        <v>-3.6235489220563846</v>
+      </c>
+      <c r="E200" s="4">
+        <v>0.57980769230769236</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>105</v>
+      </c>
+      <c r="B201" s="2">
+        <v>10.348258706467661</v>
+      </c>
+      <c r="C201" s="2">
+        <v>6</v>
+      </c>
+      <c r="D201" s="2">
+        <v>-4.3482587064676608</v>
+      </c>
+      <c r="E201" s="4">
+        <v>0.57980769230769236</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>47</v>
+      </c>
+      <c r="B202" s="2">
+        <v>15.522388059701491</v>
+      </c>
+      <c r="C202" s="2">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2">
+        <v>-6.5223880597014912</v>
+      </c>
+      <c r="E202" s="4">
+        <v>0.57980769230769236</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>26</v>
+      </c>
+      <c r="B203" s="2">
+        <v>18.971807628524047</v>
+      </c>
+      <c r="C203" s="2">
+        <v>11</v>
+      </c>
+      <c r="D203" s="2">
+        <v>-7.9718076285240471</v>
+      </c>
+      <c r="E203" s="4">
+        <v>0.57980769230769225</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>127</v>
+      </c>
+      <c r="B204" s="2">
+        <v>7.7611940298507456</v>
+      </c>
+      <c r="C204" s="2">
+        <v>4</v>
+      </c>
+      <c r="D204" s="2">
+        <v>-3.7611940298507456</v>
+      </c>
+      <c r="E204" s="4">
+        <v>0.51538461538461544</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>123</v>
+      </c>
+      <c r="B205" s="2">
+        <v>7.7611940298507456</v>
+      </c>
+      <c r="C205" s="2">
+        <v>4</v>
+      </c>
+      <c r="D205" s="2">
+        <v>-3.7611940298507456</v>
+      </c>
+      <c r="E205" s="4">
+        <v>0.51538461538461544</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>152</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B206" s="2">
         <v>6.0364842454394694</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C206" s="2">
         <v>3</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D206" s="2">
         <v>-3.0364842454394694</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+      <c r="E206" s="4">
+        <v>0.49697802197802199</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>169</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B207" s="2">
         <v>6.0364842454394694</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C207" s="2">
         <v>3</v>
       </c>
-      <c r="D201" s="2">
+      <c r="D207" s="2">
         <v>-3.0364842454394694</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+      <c r="E207" s="4">
+        <v>0.49697802197802199</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>163</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B208" s="2">
         <v>6.0364842454394694</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C208" s="2">
         <v>3</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D208" s="2">
         <v>-3.0364842454394694</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>2</v>
-      </c>
-      <c r="B203" s="2">
-        <v>43.117744610281925</v>
-      </c>
-      <c r="C203" s="2">
-        <v>40</v>
-      </c>
-      <c r="D203" s="2">
-        <v>-3.1177446102819246</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>61</v>
-      </c>
-      <c r="B204" s="2">
-        <v>11.2106135986733</v>
-      </c>
-      <c r="C204" s="2">
-        <v>8</v>
-      </c>
-      <c r="D204" s="2">
-        <v>-3.2106135986732998</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>45</v>
-      </c>
-      <c r="B205" s="2">
-        <v>17.247097844112769</v>
-      </c>
-      <c r="C205" s="2">
-        <v>14</v>
-      </c>
-      <c r="D205" s="2">
-        <v>-3.2470978441127691</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>74</v>
-      </c>
-      <c r="B206" s="2">
-        <v>9.4859038142620236</v>
-      </c>
-      <c r="C206" s="2">
-        <v>6</v>
-      </c>
-      <c r="D206" s="2">
-        <v>-3.4859038142620236</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>205</v>
-      </c>
-      <c r="B207" s="2">
-        <v>2.5870646766169152</v>
-      </c>
-      <c r="C207" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D207" s="2">
-        <v>-3.5870646766169152</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>87</v>
-      </c>
-      <c r="B208" s="2">
-        <v>8.6235489220563846</v>
-      </c>
-      <c r="C208" s="2">
-        <v>5</v>
-      </c>
-      <c r="D208" s="2">
-        <v>-3.6235489220563846</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E208" s="4">
+        <v>0.49697802197802199</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="B209" s="2">
-        <v>8.6235489220563846</v>
+        <v>10.348258706467661</v>
       </c>
       <c r="C209" s="2">
         <v>5</v>
       </c>
       <c r="D209" s="2">
-        <v>-3.6235489220563846</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-5.3482587064676608</v>
+      </c>
+      <c r="E209" s="4">
+        <v>0.48317307692307698</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="B210" s="2">
-        <v>1.7247097844112769</v>
+        <v>4.3117744610281923</v>
       </c>
       <c r="C210" s="2">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D210" s="2">
-        <v>-3.7247097844112771</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-2.3117744610281923</v>
+      </c>
+      <c r="E210" s="4">
+        <v>0.46384615384615385</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="B211" s="2">
-        <v>1.7247097844112769</v>
+        <v>8.6235489220563846</v>
       </c>
       <c r="C211" s="2">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D211" s="2">
-        <v>-3.7247097844112771</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-4.6235489220563846</v>
+      </c>
+      <c r="E211" s="4">
+        <v>0.46384615384615385</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="B212" s="2">
-        <v>7.7611940298507456</v>
+        <v>19.834162520729684</v>
       </c>
       <c r="C212" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2">
-        <v>-3.7611940298507456</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-10.834162520729684</v>
+      </c>
+      <c r="E212" s="4">
+        <v>0.4537625418060201</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B213" s="2">
-        <v>7.7611940298507456</v>
+        <v>9.4859038142620236</v>
       </c>
       <c r="C213" s="2">
         <v>4</v>
       </c>
       <c r="D213" s="2">
-        <v>-3.7611940298507456</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-5.4859038142620236</v>
+      </c>
+      <c r="E213" s="4">
+        <v>0.42167832167832164</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B214" s="2">
-        <v>0.86235489220563843</v>
+        <v>2.5870646766169152</v>
       </c>
       <c r="C214" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D214" s="2">
-        <v>-3.8623548922056385</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1.5870646766169152</v>
+      </c>
+      <c r="E214" s="4">
+        <v>0.38653846153846155</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>298</v>
+        <v>191</v>
       </c>
       <c r="B215" s="2">
-        <v>0.86235489220563843</v>
+        <v>2.5870646766169152</v>
       </c>
       <c r="C215" s="2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D215" s="2">
-        <v>-3.8623548922056385</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1.5870646766169152</v>
+      </c>
+      <c r="E215" s="4">
+        <v>0.38653846153846155</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="B216" s="2">
-        <v>0.86235489220563843</v>
+        <v>6.0364842454394694</v>
       </c>
       <c r="C216" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D216" s="2">
-        <v>-3.8623548922056385</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-4.0364842454394694</v>
+      </c>
+      <c r="E216" s="4">
+        <v>0.33131868131868131</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B217" s="2">
         <v>6.0364842454394694</v>
@@ -4672,10 +5342,13 @@
       <c r="D217" s="2">
         <v>-4.0364842454394694</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E217" s="4">
+        <v>0.33131868131868131</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="B218" s="2">
         <v>6.0364842454394694</v>
@@ -4686,10 +5359,13 @@
       <c r="D218" s="2">
         <v>-4.0364842454394694</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E218" s="4">
+        <v>0.33131868131868131</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B219" s="2">
         <v>6.0364842454394694</v>
@@ -4700,584 +5376,710 @@
       <c r="D219" s="2">
         <v>-4.0364842454394694</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E219" s="4">
+        <v>0.33131868131868131</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B220" s="2">
-        <v>6.0364842454394694</v>
+        <v>3.4494195688225537</v>
       </c>
       <c r="C220" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220" s="2">
-        <v>-4.0364842454394694</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-2.4494195688225537</v>
+      </c>
+      <c r="E220" s="4">
+        <v>0.28990384615384618</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="B221" s="2">
-        <v>12.072968490878939</v>
+        <v>3.4494195688225537</v>
       </c>
       <c r="C221" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D221" s="2">
-        <v>-4.0729684908789388</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-2.4494195688225537</v>
+      </c>
+      <c r="E221" s="4">
+        <v>0.28990384615384618</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="B222" s="2">
-        <v>10.348258706467661</v>
+        <v>3.4494195688225537</v>
       </c>
       <c r="C222" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D222" s="2">
-        <v>-4.3482587064676608</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-2.4494195688225537</v>
+      </c>
+      <c r="E222" s="4">
+        <v>0.28990384615384618</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="B223" s="2">
-        <v>3.4494195688225537</v>
+        <v>8.6235489220563846</v>
       </c>
       <c r="C223" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D223" s="2">
-        <v>-4.4494195688225542</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-7.6235489220563846</v>
+      </c>
+      <c r="E223" s="4">
+        <v>0.11596153846153846</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>55</v>
+        <v>234</v>
       </c>
       <c r="B224" s="2">
-        <v>15.522388059701491</v>
+        <v>1.7247097844112769</v>
       </c>
       <c r="C224" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D224" s="2">
-        <v>-4.5223880597014912</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1.7247097844112769</v>
+      </c>
+      <c r="E224" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B225" s="2">
         <v>2.5870646766169152</v>
       </c>
       <c r="C225" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D225" s="2">
-        <v>-4.5870646766169152</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-2.5870646766169152</v>
+      </c>
+      <c r="E225" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B226" s="2">
         <v>2.5870646766169152</v>
       </c>
       <c r="C226" s="2">
+        <v>0</v>
+      </c>
+      <c r="D226" s="2">
+        <v>-2.5870646766169152</v>
+      </c>
+      <c r="E226" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>175</v>
+      </c>
+      <c r="B227" s="2">
+        <v>5.1741293532338304</v>
+      </c>
+      <c r="C227" s="2">
+        <v>0</v>
+      </c>
+      <c r="D227" s="2">
+        <v>-5.1741293532338304</v>
+      </c>
+      <c r="E227" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>94</v>
+      </c>
+      <c r="B228" s="2">
+        <v>7.7611940298507456</v>
+      </c>
+      <c r="C228" s="2">
         <v>-2</v>
       </c>
-      <c r="D226" s="2">
+      <c r="D228" s="2">
+        <v>-9.7611940298507456</v>
+      </c>
+      <c r="E228" s="4">
+        <v>-0.25769230769230772</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>190</v>
+      </c>
+      <c r="B229" s="2">
+        <v>3.4494195688225537</v>
+      </c>
+      <c r="C229" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D229" s="2">
+        <v>-4.4494195688225542</v>
+      </c>
+      <c r="E229" s="4">
+        <v>-0.28990384615384618</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>170</v>
+      </c>
+      <c r="B230" s="2">
+        <v>6.0364842454394694</v>
+      </c>
+      <c r="C230" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D230" s="2">
+        <v>-8.0364842454394694</v>
+      </c>
+      <c r="E230" s="4">
+        <v>-0.33131868131868131</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>205</v>
+      </c>
+      <c r="B231" s="2">
+        <v>2.5870646766169152</v>
+      </c>
+      <c r="C231" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D231" s="2">
+        <v>-3.5870646766169152</v>
+      </c>
+      <c r="E231" s="4">
+        <v>-0.38653846153846155</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>135</v>
+      </c>
+      <c r="B232" s="2">
+        <v>5.1741293532338304</v>
+      </c>
+      <c r="C232" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D232" s="2">
+        <v>-7.1741293532338304</v>
+      </c>
+      <c r="E232" s="4">
+        <v>-0.38653846153846155</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>339</v>
+      </c>
+      <c r="B233" s="2">
+        <v>1.7247097844112769</v>
+      </c>
+      <c r="C233" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D233" s="2">
+        <v>-2.7247097844112771</v>
+      </c>
+      <c r="E233" s="4">
+        <v>-0.57980769230769236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>224</v>
+      </c>
+      <c r="B234" s="2">
+        <v>1.7247097844112769</v>
+      </c>
+      <c r="C234" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D234" s="2">
+        <v>-2.7247097844112771</v>
+      </c>
+      <c r="E234" s="4">
+        <v>-0.57980769230769236</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>213</v>
+      </c>
+      <c r="B235" s="2">
+        <v>1.7247097844112769</v>
+      </c>
+      <c r="C235" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D235" s="2">
+        <v>-2.7247097844112771</v>
+      </c>
+      <c r="E235" s="4">
+        <v>-0.57980769230769236</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>211</v>
+      </c>
+      <c r="B236" s="2">
+        <v>1.7247097844112769</v>
+      </c>
+      <c r="C236" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D236" s="2">
+        <v>-2.7247097844112771</v>
+      </c>
+      <c r="E236" s="4">
+        <v>-0.57980769230769236</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>165</v>
+      </c>
+      <c r="B237" s="2">
+        <v>2.5870646766169152</v>
+      </c>
+      <c r="C237" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D237" s="2">
         <v>-4.5870646766169152</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>7</v>
-      </c>
-      <c r="B227" s="2">
-        <v>27.59535655058043</v>
-      </c>
-      <c r="C227" s="2">
-        <v>23</v>
-      </c>
-      <c r="D227" s="2">
-        <v>-4.5953565505804299</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>113</v>
-      </c>
-      <c r="B228" s="2">
-        <v>8.6235489220563846</v>
-      </c>
-      <c r="C228" s="2">
-        <v>4</v>
-      </c>
-      <c r="D228" s="2">
-        <v>-4.6235489220563846</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+      <c r="E237" s="4">
+        <v>-0.77307692307692311</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>219</v>
+      </c>
+      <c r="B238" s="2">
+        <v>2.5870646766169152</v>
+      </c>
+      <c r="C238" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D238" s="2">
+        <v>-4.5870646766169152</v>
+      </c>
+      <c r="E238" s="4">
+        <v>-0.77307692307692311</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>161</v>
+      </c>
+      <c r="B239" s="2">
+        <v>4.3117744610281923</v>
+      </c>
+      <c r="C239" s="2">
+        <v>-4</v>
+      </c>
+      <c r="D239" s="2">
+        <v>-8.3117744610281932</v>
+      </c>
+      <c r="E239" s="4">
+        <v>-0.9276923076923077</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>247</v>
+      </c>
+      <c r="B240" s="2">
+        <v>0.86235489220563843</v>
+      </c>
+      <c r="C240" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D240" s="2">
+        <v>-1.8623548922056385</v>
+      </c>
+      <c r="E240" s="4">
+        <v>-1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>250</v>
+      </c>
+      <c r="B241" s="2">
+        <v>0.86235489220563843</v>
+      </c>
+      <c r="C241" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D241" s="2">
+        <v>-1.8623548922056385</v>
+      </c>
+      <c r="E241" s="4">
+        <v>-1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>253</v>
+      </c>
+      <c r="B242" s="2">
+        <v>0.86235489220563843</v>
+      </c>
+      <c r="C242" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D242" s="2">
+        <v>-1.8623548922056385</v>
+      </c>
+      <c r="E242" s="4">
+        <v>-1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>225</v>
+      </c>
+      <c r="B243" s="2">
+        <v>1.7247097844112769</v>
+      </c>
+      <c r="C243" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D243" s="2">
+        <v>-3.7247097844112771</v>
+      </c>
+      <c r="E243" s="4">
+        <v>-1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>216</v>
+      </c>
+      <c r="B244" s="2">
+        <v>1.7247097844112769</v>
+      </c>
+      <c r="C244" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D244" s="2">
+        <v>-3.7247097844112771</v>
+      </c>
+      <c r="E244" s="4">
+        <v>-1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>202</v>
+      </c>
+      <c r="B245" s="2">
+        <v>2.5870646766169152</v>
+      </c>
+      <c r="C245" s="2">
+        <v>-3</v>
+      </c>
+      <c r="D245" s="2">
+        <v>-5.5870646766169152</v>
+      </c>
+      <c r="E245" s="4">
+        <v>-1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>201</v>
+      </c>
+      <c r="B246" s="2">
+        <v>2.5870646766169152</v>
+      </c>
+      <c r="C246" s="2">
+        <v>-3</v>
+      </c>
+      <c r="D246" s="2">
+        <v>-5.5870646766169152</v>
+      </c>
+      <c r="E246" s="4">
+        <v>-1.1596153846153847</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>197</v>
+      </c>
+      <c r="B247" s="2">
+        <v>3.4494195688225537</v>
+      </c>
+      <c r="C247" s="2">
+        <v>-5</v>
+      </c>
+      <c r="D247" s="2">
+        <v>-8.4494195688225542</v>
+      </c>
+      <c r="E247" s="4">
+        <v>-1.4495192307692308</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
         <v>212</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B248" s="2">
         <v>1.7247097844112769</v>
       </c>
-      <c r="C229" s="2">
+      <c r="C248" s="2">
         <v>-3</v>
       </c>
-      <c r="D229" s="2">
+      <c r="D248" s="2">
         <v>-4.7247097844112771</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+      <c r="E248" s="4">
+        <v>-1.739423076923077</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
         <v>214</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B249" s="2">
         <v>1.7247097844112769</v>
       </c>
-      <c r="C230" s="2">
+      <c r="C249" s="2">
         <v>-3</v>
       </c>
-      <c r="D230" s="2">
+      <c r="D249" s="2">
         <v>-4.7247097844112771</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+      <c r="E249" s="4">
+        <v>-1.739423076923077</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>237</v>
+      </c>
+      <c r="B250" s="2">
+        <v>0.86235489220563843</v>
+      </c>
+      <c r="C250" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D250" s="2">
+        <v>-2.8623548922056385</v>
+      </c>
+      <c r="E250" s="4">
+        <v>-2.3192307692307694</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>217</v>
+      </c>
+      <c r="B251" s="2">
+        <v>0.86235489220563843</v>
+      </c>
+      <c r="C251" s="2">
+        <v>-3</v>
+      </c>
+      <c r="D251" s="2">
+        <v>-3.8623548922056385</v>
+      </c>
+      <c r="E251" s="4">
+        <v>-3.4788461538461539</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>298</v>
+      </c>
+      <c r="B252" s="2">
+        <v>0.86235489220563843</v>
+      </c>
+      <c r="C252" s="2">
+        <v>-3</v>
+      </c>
+      <c r="D252" s="2">
+        <v>-3.8623548922056385</v>
+      </c>
+      <c r="E252" s="4">
+        <v>-3.4788461538461539</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253" s="2">
+        <v>0.86235489220563843</v>
+      </c>
+      <c r="C253" s="2">
+        <v>-3</v>
+      </c>
+      <c r="D253" s="2">
+        <v>-3.8623548922056385</v>
+      </c>
+      <c r="E253" s="4">
+        <v>-3.4788461538461539</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>230</v>
+      </c>
+      <c r="B254" s="2">
+        <v>1.7247097844112769</v>
+      </c>
+      <c r="C254" s="2">
+        <v>-7</v>
+      </c>
+      <c r="D254" s="2">
+        <v>-8.7247097844112762</v>
+      </c>
+      <c r="E254" s="4">
+        <v>-4.0586538461538462</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
         <v>240</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B255" s="2">
         <v>0.86235489220563843</v>
       </c>
-      <c r="C231" s="2">
+      <c r="C255" s="2">
         <v>-4</v>
       </c>
-      <c r="D231" s="2">
+      <c r="D255" s="2">
         <v>-4.8623548922056381</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+      <c r="E255" s="4">
+        <v>-4.6384615384615389</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
         <v>245</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B256" s="2">
         <v>0.86235489220563843</v>
       </c>
-      <c r="C232" s="2">
+      <c r="C256" s="2">
         <v>-4</v>
       </c>
-      <c r="D232" s="2">
+      <c r="D256" s="2">
         <v>-4.8623548922056381</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+      <c r="E256" s="4">
+        <v>-4.6384615384615389</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
         <v>246</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B257" s="2">
         <v>0.86235489220563843</v>
       </c>
-      <c r="C233" s="2">
+      <c r="C257" s="2">
         <v>-4</v>
       </c>
-      <c r="D233" s="2">
+      <c r="D257" s="2">
         <v>-4.8623548922056381</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+      <c r="E257" s="4">
+        <v>-4.6384615384615389</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
         <v>251</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B258" s="2">
         <v>0.86235489220563843</v>
       </c>
-      <c r="C234" s="2">
+      <c r="C258" s="2">
         <v>-4</v>
       </c>
-      <c r="D234" s="2">
+      <c r="D258" s="2">
         <v>-4.8623548922056381</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>5</v>
-      </c>
-      <c r="B235" s="2">
-        <v>31.907131011608623</v>
-      </c>
-      <c r="C235" s="2">
-        <v>27</v>
-      </c>
-      <c r="D235" s="2">
-        <v>-4.9071310116086231</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>35</v>
-      </c>
-      <c r="B236" s="2">
-        <v>18.971807628524047</v>
-      </c>
-      <c r="C236" s="2">
-        <v>14</v>
-      </c>
-      <c r="D236" s="2">
-        <v>-4.9718076285240471</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>15</v>
-      </c>
-      <c r="B237" s="2">
-        <v>25.008291873963515</v>
-      </c>
-      <c r="C237" s="2">
-        <v>20</v>
-      </c>
-      <c r="D237" s="2">
-        <v>-5.0082918739635147</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>21</v>
-      </c>
-      <c r="B238" s="2">
-        <v>24.145936981757878</v>
-      </c>
-      <c r="C238" s="2">
-        <v>19</v>
-      </c>
-      <c r="D238" s="2">
-        <v>-5.1459369817578775</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>175</v>
-      </c>
-      <c r="B239" s="2">
-        <v>5.1741293532338304</v>
-      </c>
-      <c r="C239" s="2">
-        <v>0</v>
-      </c>
-      <c r="D239" s="2">
-        <v>-5.1741293532338304</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>73</v>
-      </c>
-      <c r="B240" s="2">
-        <v>10.348258706467661</v>
-      </c>
-      <c r="C240" s="2">
-        <v>5</v>
-      </c>
-      <c r="D240" s="2">
-        <v>-5.3482587064676608</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>101</v>
-      </c>
-      <c r="B241" s="2">
-        <v>9.4859038142620236</v>
-      </c>
-      <c r="C241" s="2">
-        <v>4</v>
-      </c>
-      <c r="D241" s="2">
-        <v>-5.4859038142620236</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>202</v>
-      </c>
-      <c r="B242" s="2">
-        <v>2.5870646766169152</v>
-      </c>
-      <c r="C242" s="2">
-        <v>-3</v>
-      </c>
-      <c r="D242" s="2">
-        <v>-5.5870646766169152</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>201</v>
-      </c>
-      <c r="B243" s="2">
-        <v>2.5870646766169152</v>
-      </c>
-      <c r="C243" s="2">
-        <v>-3</v>
-      </c>
-      <c r="D243" s="2">
-        <v>-5.5870646766169152</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>17</v>
-      </c>
-      <c r="B244" s="2">
-        <v>25.008291873963515</v>
-      </c>
-      <c r="C244" s="2">
-        <v>19</v>
-      </c>
-      <c r="D244" s="2">
-        <v>-6.0082918739635147</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>47</v>
-      </c>
-      <c r="B245" s="2">
-        <v>15.522388059701491</v>
-      </c>
-      <c r="C245" s="2">
-        <v>9</v>
-      </c>
-      <c r="D245" s="2">
-        <v>-6.5223880597014912</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
+      <c r="E258" s="4">
+        <v>-4.6384615384615389</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
         <v>242</v>
-      </c>
-      <c r="B246" s="2">
-        <v>0.86235489220563843</v>
-      </c>
-      <c r="C246" s="2">
-        <v>-6</v>
-      </c>
-      <c r="D246" s="2">
-        <v>-6.8623548922056381</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>33</v>
-      </c>
-      <c r="B247" s="2">
-        <v>18.971807628524047</v>
-      </c>
-      <c r="C247" s="2">
-        <v>12</v>
-      </c>
-      <c r="D247" s="2">
-        <v>-6.9718076285240471</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>135</v>
-      </c>
-      <c r="B248" s="2">
-        <v>5.1741293532338304</v>
-      </c>
-      <c r="C248" s="2">
-        <v>-2</v>
-      </c>
-      <c r="D248" s="2">
-        <v>-7.1741293532338304</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>111</v>
-      </c>
-      <c r="B249" s="2">
-        <v>8.6235489220563846</v>
-      </c>
-      <c r="C249" s="2">
-        <v>1</v>
-      </c>
-      <c r="D249" s="2">
-        <v>-7.6235489220563846</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>26</v>
-      </c>
-      <c r="B250" s="2">
-        <v>18.971807628524047</v>
-      </c>
-      <c r="C250" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" s="2">
-        <v>-7.9718076285240471</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>170</v>
-      </c>
-      <c r="B251" s="2">
-        <v>6.0364842454394694</v>
-      </c>
-      <c r="C251" s="2">
-        <v>-2</v>
-      </c>
-      <c r="D251" s="2">
-        <v>-8.0364842454394694</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>161</v>
-      </c>
-      <c r="B252" s="2">
-        <v>4.3117744610281923</v>
-      </c>
-      <c r="C252" s="2">
-        <v>-4</v>
-      </c>
-      <c r="D252" s="2">
-        <v>-8.3117744610281932</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>259</v>
-      </c>
-      <c r="B253" s="2">
-        <v>35.356550580431175</v>
-      </c>
-      <c r="C253" s="2">
-        <v>27</v>
-      </c>
-      <c r="D253" s="2">
-        <v>-8.3565505804311755</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>197</v>
-      </c>
-      <c r="B254" s="2">
-        <v>3.4494195688225537</v>
-      </c>
-      <c r="C254" s="2">
-        <v>-5</v>
-      </c>
-      <c r="D254" s="2">
-        <v>-8.4494195688225542</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>6</v>
-      </c>
-      <c r="B255" s="2">
-        <v>28.457711442786067</v>
-      </c>
-      <c r="C255" s="2">
-        <v>20</v>
-      </c>
-      <c r="D255" s="2">
-        <v>-8.4577114427860671</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>230</v>
-      </c>
-      <c r="B256" s="2">
-        <v>1.7247097844112769</v>
-      </c>
-      <c r="C256" s="2">
-        <v>-7</v>
-      </c>
-      <c r="D256" s="2">
-        <v>-8.7247097844112762</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>4</v>
-      </c>
-      <c r="B257" s="2">
-        <v>31.044776119402982</v>
-      </c>
-      <c r="C257" s="2">
-        <v>22</v>
-      </c>
-      <c r="D257" s="2">
-        <v>-9.0447761194029823</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>94</v>
-      </c>
-      <c r="B258" s="2">
-        <v>7.7611940298507456</v>
-      </c>
-      <c r="C258" s="2">
-        <v>-2</v>
-      </c>
-      <c r="D258" s="2">
-        <v>-9.7611940298507456</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>244</v>
       </c>
       <c r="B259" s="2">
         <v>0.86235489220563843</v>
       </c>
       <c r="C259" s="2">
+        <v>-6</v>
+      </c>
+      <c r="D259" s="2">
+        <v>-6.8623548922056381</v>
+      </c>
+      <c r="E259" s="4">
+        <v>-6.9576923076923078</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>244</v>
+      </c>
+      <c r="B260" s="2">
+        <v>0.86235489220563843</v>
+      </c>
+      <c r="C260" s="2">
         <v>-9</v>
       </c>
-      <c r="D259" s="2">
+      <c r="D260" s="2">
         <v>-9.862354892205639</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>22</v>
-      </c>
-      <c r="B260" s="2">
-        <v>19.834162520729684</v>
-      </c>
-      <c r="C260" s="2">
-        <v>9</v>
-      </c>
-      <c r="D260" s="2">
-        <v>-10.834162520729684</v>
+      <c r="E260" s="4">
+        <v>-10.436538461538461</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D260">
-    <sortCondition descending="1" ref="D2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E260">
+    <sortCondition descending="1" ref="E2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
